--- a/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78656584-0A1E-4A94-A7F3-1A2415172849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE0AC29-F226-4379-8588-3EF4776C693E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>Year</t>
   </si>
@@ -123,12 +123,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -253,6 +247,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -459,13 +462,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -531,12 +543,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -547,6 +553,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1048,641 +1063,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
     <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="12" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="5" width="24.54296875" style="12" customWidth="1"/>
+    <col min="6" max="7" width="12.453125" style="12" customWidth="1"/>
+    <col min="8" max="9" width="3.81640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="29"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="14">
+        <v>18</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="14">
         <v>105000</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="G3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9">
         <v>0</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="10" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="10" t="str">
+        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="14">
+        <v>19</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="14">
         <v>85000</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="H4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="9">
         <v>0</v>
       </c>
-      <c r="I4" s="10" t="str">
-        <f t="shared" ref="I4:I13" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J4" s="10" t="str">
+        <f t="shared" ref="J4:J13" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2015</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="14">
+        <v>20</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="14">
         <v>85000</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="H5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9">
         <v>0</v>
       </c>
-      <c r="I5" s="10" t="str">
+      <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2016</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="14">
+        <v>21</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="14">
         <v>85000</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="G6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2016</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="14">
+        <v>22</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="14">
         <v>85000</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="G7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9">
         <v>0</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="10" t="str">
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2017</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="14">
+        <v>23</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="14">
         <v>85000</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="H8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="9">
         <v>0</v>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="J8" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2017</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="14">
+        <v>24</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="14">
         <v>85000</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="H9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="9">
         <v>0</v>
       </c>
-      <c r="I9" s="10" t="str">
+      <c r="J9" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2018</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="14">
+        <v>25</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="14">
         <v>75000</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="G10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="10" t="str">
+      <c r="I10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2018</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="14">
+        <v>26</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="14">
         <v>75000</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="G11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="10" t="str">
+      <c r="I11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2019</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="14">
         <v>60000</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="H12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="9">
         <v>0</v>
       </c>
-      <c r="I12" s="10" t="str">
+      <c r="J12" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2019</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="14">
+        <v>28</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="14">
         <v>60000</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="H13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="9">
         <v>0</v>
       </c>
-      <c r="I13" s="10" t="str">
+      <c r="J13" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2020</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="9">
         <v>0</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="10" t="str">
-        <f t="shared" ref="I14:I15" si="1">IF(OR(AND(G14&gt;1,G14&lt;&gt;"-"),AND(H14&gt;1,H14&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="10" t="str">
+        <f t="shared" ref="J14:J15" si="1">IF(OR(AND(H14&gt;1,H14&lt;&gt;"-"),AND(I14&gt;1,I14&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2020</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="14">
+        <v>36</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="14">
         <v>60000</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="G15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="9">
         <v>0</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="10" t="str">
+      <c r="I15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2021</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="9">
+        <v>37</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="9">
         <v>0</v>
       </c>
-      <c r="I16" s="10" t="str">
-        <f t="shared" ref="I16:I17" si="2">IF(OR(AND(G16&gt;1,G16&lt;&gt;"-"),AND(H16&gt;1,H16&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J16" s="10" t="str">
+        <f t="shared" ref="J16:J17" si="2">IF(OR(AND(H16&gt;1,H16&lt;&gt;"-"),AND(I16&gt;1,I16&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="S16" s="23"/>
       <c r="T16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2021</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="9">
+        <v>38</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="9">
         <v>0</v>
       </c>
-      <c r="I17" s="10" t="str">
+      <c r="J17" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2022</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="9">
+        <v>39</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="10" t="str">
-        <f t="shared" ref="I18:I19" si="3">IF(OR(AND(G18&gt;1,G18&lt;&gt;"-"),AND(H18&gt;1,H18&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="10" t="str">
+        <f t="shared" ref="J18:J19" si="3">IF(OR(AND(H18&gt;1,H18&lt;&gt;"-"),AND(I18&gt;1,I18&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2022</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="9">
+        <v>40</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="9">
         <v>0</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="10" t="str">
+      <c r="I19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2023</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="9">
+        <v>41</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="9">
         <v>0</v>
       </c>
-      <c r="I20" s="10" t="str">
-        <f t="shared" ref="I20:I21" si="4">IF(OR(AND(G20&gt;1,G20&lt;&gt;"-"),AND(H20&gt;1,H20&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J20" s="10" t="str">
+        <f t="shared" ref="J20:J21" si="4">IF(OR(AND(H20&gt;1,H20&lt;&gt;"-"),AND(I20&gt;1,I20&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2023</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="9">
+      <c r="H21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="9">
         <v>0</v>
       </c>
-      <c r="I21" s="10" t="str">
+      <c r="J21" s="10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1691,16 +1728,16 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G5 G8:G9 G12:G13">
+  <conditionalFormatting sqref="H3:H5 H8:H9 H12:H13">
     <cfRule type="containsText" dxfId="26" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G5 G8:G9 G12:G13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H5 H8:H9 H12:H13">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1712,12 +1749,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H6:H7 H10:H11">
+  <conditionalFormatting sqref="I3 I6:I7 I10:I11">
     <cfRule type="containsText" dxfId="25" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7 H3 H10:H11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I7 I3 I10:I11">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1729,318 +1766,318 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H17">
+    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H17">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I19">
+    <cfRule type="containsText" dxfId="22" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I19">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H21">
+    <cfRule type="containsText" dxfId="21" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H21">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G17">
-    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G17">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H19">
-    <cfRule type="containsText" dxfId="22" priority="41" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H19">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G21">
-    <cfRule type="containsText" dxfId="21" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G21">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="H18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2052,12 +2089,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2069,12 +2106,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="I20">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2086,12 +2123,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="I21">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2114,7 +2151,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2126,13 +2163,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2140,10 +2177,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2151,10 +2188,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2162,10 +2199,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2173,10 +2210,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2184,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2195,10 +2232,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE0AC29-F226-4379-8588-3EF4776C693E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D875B8D-2C4B-458D-8D81-E267D02C2781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4220" yWindow="770" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="49">
   <si>
     <t>Year</t>
   </si>
@@ -569,7 +569,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -792,9 +808,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1063,13 +1079,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1689,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="10" t="str">
-        <f t="shared" ref="J20:J21" si="4">IF(OR(AND(H20&gt;1,H20&lt;&gt;"-"),AND(I20&gt;1,I20&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="J20:J22" si="4">IF(OR(AND(H20&gt;1,H20&lt;&gt;"-"),AND(I20&gt;1,I20&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1720,6 +1736,39 @@
         <v>0</v>
       </c>
       <c r="J21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1733,12 +1782,12 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H5 H8:H9 H12:H13">
-    <cfRule type="containsText" dxfId="26" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H5 H8:H9 H12:H13">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1750,11 +1799,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 I6:I7 I10:I11">
-    <cfRule type="containsText" dxfId="25" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I7 I3 I10:I11">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1766,30 +1832,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
-    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H16:H17">
-    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H17">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1801,12 +1850,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I19">
-    <cfRule type="containsText" dxfId="22" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I19">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1818,11 +1867,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H21">
-    <cfRule type="containsText" dxfId="21" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H21">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1834,12 +1900,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
     <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1851,12 +1934,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+  <conditionalFormatting sqref="H7">
     <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1868,12 +1951,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="I8">
     <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1885,12 +1968,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="I9">
     <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1902,12 +1985,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
+  <conditionalFormatting sqref="H10">
     <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1919,12 +2002,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="H11">
     <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1936,12 +2019,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="I12">
     <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1953,12 +2036,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="I13">
     <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1970,12 +2053,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+  <conditionalFormatting sqref="H14">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1987,12 +2070,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+  <conditionalFormatting sqref="H15">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2004,12 +2087,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="I16">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2021,12 +2104,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="I17">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2038,12 +2121,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="H18">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2055,12 +2138,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2072,12 +2155,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="I20">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2089,12 +2172,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="I21">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2106,12 +2189,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2123,12 +2206,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D875B8D-2C4B-458D-8D81-E267D02C2781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53348C85-9C9A-44C7-A5D0-88D2EBF1DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="770" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3320" yWindow="890" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -330,6 +330,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -369,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -471,13 +478,136 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -563,13 +693,219 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="47">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -594,6 +930,22 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -808,9 +1160,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="19" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1085,7 +1437,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1168,7 +1520,7 @@
       <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="33">
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -1202,7 +1554,7 @@
       <c r="H4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="33">
         <v>0</v>
       </c>
       <c r="J4" s="10" t="str">
@@ -1233,8 +1585,8 @@
       <c r="H5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="9">
-        <v>0</v>
+      <c r="I5" s="33">
+        <v>1</v>
       </c>
       <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1242,30 +1594,30 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+    <row r="6" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="44">
         <v>2016</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="48">
         <v>85000</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="G6" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="50">
+        <v>1</v>
+      </c>
+      <c r="I6" s="51" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="10" t="str">
@@ -1274,29 +1626,29 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="52">
         <v>2016</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="55">
         <v>85000</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="G7" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="57">
+        <v>1</v>
+      </c>
+      <c r="I7" s="58" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="10" t="str">
@@ -1327,8 +1679,8 @@
       <c r="H8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="9">
-        <v>0</v>
+      <c r="I8" s="33">
+        <v>1</v>
       </c>
       <c r="J8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1358,38 +1710,38 @@
       <c r="H9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="9">
-        <v>0</v>
+      <c r="I9" s="33">
+        <v>1</v>
       </c>
       <c r="J9" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+    <row r="10" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="36">
         <v>2018</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="40">
         <v>75000</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="G10" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="42">
+        <v>1</v>
+      </c>
+      <c r="I10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="10" t="str">
@@ -1398,29 +1750,29 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="A11" s="52">
         <v>2018</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="55">
         <v>75000</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="G11" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="57">
+        <v>1</v>
+      </c>
+      <c r="I11" s="58" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="10" t="str">
@@ -1451,7 +1803,7 @@
       <c r="H12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="33">
         <v>0</v>
       </c>
       <c r="J12" s="10" t="str">
@@ -1482,7 +1834,7 @@
       <c r="H13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="33">
         <v>0</v>
       </c>
       <c r="J13" s="10" t="str">
@@ -1490,30 +1842,30 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+    <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="36">
         <v>2020</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="G14" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="42">
         <v>0</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="10" t="str">
@@ -1522,29 +1874,29 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="A15" s="52">
         <v>2020</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="55">
         <v>60000</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="G15" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="57">
         <v>0</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="58" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="10" t="str">
@@ -1575,7 +1927,7 @@
       <c r="H16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="33">
         <v>0</v>
       </c>
       <c r="J16" s="10" t="str">
@@ -1608,7 +1960,7 @@
       <c r="H17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="33">
         <v>0</v>
       </c>
       <c r="J17" s="10" t="str">
@@ -1616,30 +1968,30 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+    <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="36">
         <v>2022</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9" t="s">
+      <c r="G18" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="42">
+        <v>1</v>
+      </c>
+      <c r="I18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="10" t="str">
@@ -1654,8 +2006,8 @@
       <c r="B19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1667,10 +2019,10 @@
       <c r="G19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="34">
         <v>0</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="35" t="s">
         <v>4</v>
       </c>
       <c r="J19" s="10" t="str">
@@ -1701,7 +2053,7 @@
       <c r="H20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="33">
         <v>0</v>
       </c>
       <c r="J20" s="10" t="str">
@@ -1732,7 +2084,7 @@
       <c r="H21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="33">
         <v>0</v>
       </c>
       <c r="J21" s="10" t="str">
@@ -1781,13 +2133,13 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:H5 H8:H9 H12:H13">
-    <cfRule type="containsText" dxfId="28" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H5 H8:H9 H12:H13">
-    <cfRule type="colorScale" priority="60">
+  <conditionalFormatting sqref="H4:H5 H8:H9 H12:H13">
+    <cfRule type="containsText" dxfId="46" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5 H8:H9 H12:H13">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1799,12 +2151,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 I6:I7 I10:I11">
-    <cfRule type="containsText" dxfId="27" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I7 I3 I10:I11">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1816,12 +2168,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1833,12 +2185,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H17">
-    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H17">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1850,12 +2202,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I19">
-    <cfRule type="containsText" dxfId="24" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I19">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1867,12 +2219,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H21">
-    <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H21">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1883,12 +2235,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="H22">
     <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1900,12 +2252,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+  <conditionalFormatting sqref="I22">
     <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1917,12 +2269,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="H6:H7">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1934,12 +2286,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1951,12 +2303,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1968,12 +2320,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1985,12 +2337,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="I8">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2002,12 +2354,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="I9">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2019,12 +2371,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2036,12 +2388,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2054,7 +2406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2071,7 +2423,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2087,12 +2439,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2104,12 +2456,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2121,12 +2473,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2138,12 +2490,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2155,12 +2507,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2172,12 +2524,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2189,12 +2541,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="I20">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2206,12 +2558,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
+  <conditionalFormatting sqref="I21">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53348C85-9C9A-44C7-A5D0-88D2EBF1DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53CDE89-E622-4CBC-8142-204121B3BD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="890" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7970" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -666,6 +666,84 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,84 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -777,151 +777,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1160,9 +1016,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="19" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1437,7 +1293,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1453,30 +1309,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
@@ -1520,8 +1376,8 @@
       <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="33">
-        <v>0</v>
+      <c r="H3" s="24">
+        <v>1</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>4</v>
@@ -1554,7 +1410,7 @@
       <c r="H4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="24">
         <v>0</v>
       </c>
       <c r="J4" s="10" t="str">
@@ -1585,7 +1441,7 @@
       <c r="H5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="24">
         <v>1</v>
       </c>
       <c r="J5" s="10" t="str">
@@ -1595,29 +1451,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="44">
+      <c r="A6" s="35">
         <v>2016</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="39">
         <v>85000</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="50">
+      <c r="G6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="41">
         <v>1</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="42" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="10" t="str">
@@ -1626,29 +1482,29 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52">
+      <c r="A7" s="43">
         <v>2016</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="46">
         <v>85000</v>
       </c>
-      <c r="G7" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="57">
+      <c r="G7" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="48">
         <v>1</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="49" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="10" t="str">
@@ -1679,7 +1535,7 @@
       <c r="H8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="24">
         <v>1</v>
       </c>
       <c r="J8" s="10" t="str">
@@ -1710,7 +1566,7 @@
       <c r="H9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="24">
         <v>1</v>
       </c>
       <c r="J9" s="10" t="str">
@@ -1719,29 +1575,29 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="36">
+      <c r="A10" s="27">
         <v>2018</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="31">
         <v>75000</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="42">
+      <c r="G10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="33">
         <v>1</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="34" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="10" t="str">
@@ -1750,29 +1606,29 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52">
+      <c r="A11" s="43">
         <v>2018</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="46">
         <v>75000</v>
       </c>
-      <c r="G11" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="57">
+      <c r="G11" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="48">
         <v>1</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="49" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="10" t="str">
@@ -1803,7 +1659,7 @@
       <c r="H12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="24">
         <v>0</v>
       </c>
       <c r="J12" s="10" t="str">
@@ -1834,7 +1690,7 @@
       <c r="H13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="24">
         <v>0</v>
       </c>
       <c r="J13" s="10" t="str">
@@ -1843,29 +1699,29 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="36">
+      <c r="A14" s="27">
         <v>2020</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="42">
+      <c r="G14" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="33">
         <v>0</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="34" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="10" t="str">
@@ -1874,29 +1730,29 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="52">
+      <c r="A15" s="43">
         <v>2020</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="46">
         <v>60000</v>
       </c>
-      <c r="G15" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="57">
+      <c r="G15" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="48">
         <v>0</v>
       </c>
-      <c r="I15" s="58" t="s">
+      <c r="I15" s="49" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="10" t="str">
@@ -1927,7 +1783,7 @@
       <c r="H16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="24">
         <v>0</v>
       </c>
       <c r="J16" s="10" t="str">
@@ -1960,7 +1816,7 @@
       <c r="H17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="24">
         <v>0</v>
       </c>
       <c r="J17" s="10" t="str">
@@ -1969,29 +1825,29 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="36">
+      <c r="A18" s="27">
         <v>2022</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="42">
+      <c r="G18" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="33">
         <v>1</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="34" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="10" t="str">
@@ -2019,10 +1875,10 @@
       <c r="G19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="25">
         <v>0</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="26" t="s">
         <v>4</v>
       </c>
       <c r="J19" s="10" t="str">
@@ -2053,7 +1909,7 @@
       <c r="H20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="24">
         <v>0</v>
       </c>
       <c r="J20" s="10" t="str">
@@ -2084,7 +1940,7 @@
       <c r="H21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="24">
         <v>0</v>
       </c>
       <c r="J21" s="10" t="str">
@@ -2134,7 +1990,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:H5 H8:H9 H12:H13">
-    <cfRule type="containsText" dxfId="46" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2151,7 +2007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 I6:I7 I10:I11">
-    <cfRule type="containsText" dxfId="45" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2168,7 +2024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="containsText" dxfId="44" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2185,7 +2041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H17">
-    <cfRule type="containsText" dxfId="43" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2202,7 +2058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I19">
-    <cfRule type="containsText" dxfId="42" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2219,7 +2075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H21">
-    <cfRule type="containsText" dxfId="41" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2270,7 +2126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2287,7 +2143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2304,7 +2160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2321,7 +2177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2338,7 +2194,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2355,7 +2211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2372,7 +2228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2389,7 +2245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2406,7 +2262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2423,7 +2279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2440,7 +2296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2457,7 +2313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2474,7 +2330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2491,7 +2347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2508,7 +2364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2525,7 +2381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2542,7 +2398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2559,7 +2415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53CDE89-E622-4CBC-8142-204121B3BD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF309DC-ADB1-4EE7-9C7E-C41FE52064E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7970" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1293,7 +1293,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1784,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="10" t="str">
         <f t="shared" ref="J16:J17" si="2">IF(OR(AND(H16&gt;1,H16&lt;&gt;"-"),AND(I16&gt;1,I16&lt;&gt;"-")),"Can exchange","")</f>
@@ -1817,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1876,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>4</v>
@@ -1910,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="10" t="str">
         <f t="shared" ref="J20:J22" si="4">IF(OR(AND(H20&gt;1,H20&lt;&gt;"-"),AND(I20&gt;1,I20&lt;&gt;"-")),"Can exchange","")</f>
@@ -1941,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="10" t="str">
         <f t="shared" si="4"/>

--- a/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF309DC-ADB1-4EE7-9C7E-C41FE52064E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F21420-B4F0-4AA1-8906-F88F990800B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
             <charset val="204"/>
           </rPr>
           <t>Fábrica Nacional de Moneda y Timbre - Real Casa de la Moneda
-(Royal Mint of Spain)</t>
+(Royal Mint of Madrid)</t>
         </r>
       </text>
     </comment>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
   <si>
     <t>Year</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Skiing in Andorra</t>
+  </si>
+  <si>
+    <t>2024 UCI Mountain Bike World Championships</t>
   </si>
 </sst>
 </file>
@@ -777,7 +783,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="30">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -786,6 +792,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1287,13 +1301,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1913,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="10" t="str">
-        <f t="shared" ref="J20:J22" si="4">IF(OR(AND(H20&gt;1,H20&lt;&gt;"-"),AND(I20&gt;1,I20&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="J20:J23" si="4">IF(OR(AND(H20&gt;1,H20&lt;&gt;"-"),AND(I20&gt;1,I20&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1948,35 +1962,64 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
         <v>2024</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="9" t="s">
+      <c r="B22" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="31">
+        <v>60000</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="33">
+        <v>1</v>
+      </c>
+      <c r="I22" s="34" t="s">
         <v>4</v>
       </c>
       <c r="J22" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="46">
+        <v>60000</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="48">
+        <v>1</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1990,11 +2033,45 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:H5 H8:H9 H12:H13">
-    <cfRule type="containsText" dxfId="28" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5 H8:H9 H12:H13">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3 I6:I7 I10:I11">
+    <cfRule type="containsText" dxfId="28" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I7 I3 I10:I11">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="containsText" dxfId="27" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2006,12 +2083,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 I6:I7 I10:I11">
-    <cfRule type="containsText" dxfId="27" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I7 I3 I10:I11">
+  <conditionalFormatting sqref="H16:H17">
+    <cfRule type="containsText" dxfId="26" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H17">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2023,29 +2100,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
-    <cfRule type="containsText" dxfId="26" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H17">
+  <conditionalFormatting sqref="I18:I19">
     <cfRule type="containsText" dxfId="25" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I19">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2057,13 +2117,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I19">
-    <cfRule type="containsText" dxfId="24" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I19">
-    <cfRule type="colorScale" priority="82">
+  <conditionalFormatting sqref="H20:H21">
+    <cfRule type="containsText" dxfId="24" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H21">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2074,13 +2134,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H21">
-    <cfRule type="containsText" dxfId="23" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H21">
-    <cfRule type="colorScale" priority="80">
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2091,12 +2151,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="I5">
     <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2108,12 +2168,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
+  <conditionalFormatting sqref="I4">
     <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2125,12 +2185,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
+  <conditionalFormatting sqref="H3">
     <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2142,12 +2202,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+  <conditionalFormatting sqref="I8">
     <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2159,12 +2219,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="I9">
     <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2176,12 +2236,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H10">
     <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2193,12 +2253,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
+  <conditionalFormatting sqref="H11">
     <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2210,12 +2270,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="H14">
     <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2227,12 +2287,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="H15">
     <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2244,12 +2304,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="I12">
     <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2261,12 +2321,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="I13">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2278,12 +2338,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="I16">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2295,12 +2355,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+  <conditionalFormatting sqref="I17">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2312,12 +2372,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+  <conditionalFormatting sqref="H18">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2329,12 +2389,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2346,12 +2406,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="I20">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2363,12 +2423,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="I21">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2380,12 +2440,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="I22:I23">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2397,12 +2457,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="H22">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2414,12 +2474,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+  <conditionalFormatting sqref="H23">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2442,7 +2502,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F21420-B4F0-4AA1-8906-F88F990800B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC33303C-063A-4055-ACBA-959137D149B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -109,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
   <si>
     <t>Year</t>
   </si>
@@ -252,9 +255,6 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -262,6 +262,33 @@
   </si>
   <si>
     <t>2024 UCI Mountain Bike World Championships</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Positioning</t>
+  </si>
+  <si>
+    <t>$Album_page</t>
+  </si>
+  <si>
+    <t>1st page</t>
+  </si>
+  <si>
+    <t>2nd page</t>
+  </si>
+  <si>
+    <t>3rd page</t>
+  </si>
+  <si>
+    <t>4th page</t>
+  </si>
+  <si>
+    <t>5th page</t>
+  </si>
+  <si>
+    <t>6th page</t>
   </si>
 </sst>
 </file>
@@ -271,7 +298,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -343,8 +370,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,8 +416,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -607,13 +678,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -753,6 +844,45 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,6 +905,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1301,60 +1434,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="5" width="24.54296875" style="12" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="12" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="12" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="12" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="12" customWidth="1"/>
+    <col min="10" max="11" width="12.6328125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="68"/>
+      <c r="J1" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="64"/>
+      <c r="B2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
       <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
@@ -1368,9 +1504,12 @@
       <c r="I2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2014</v>
       </c>
@@ -1396,12 +1535,15 @@
       <c r="I3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10" t="str">
+      <c r="J3" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="10" t="str">
         <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2015</v>
       </c>
@@ -1427,12 +1569,13 @@
       <c r="I4" s="24">
         <v>0</v>
       </c>
-      <c r="J4" s="10" t="str">
-        <f t="shared" ref="J4:J13" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J4" s="52"/>
+      <c r="K4" s="10" t="str">
+        <f t="shared" ref="K4:K13" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2015</v>
       </c>
@@ -1458,13 +1601,14 @@
       <c r="I5" s="24">
         <v>1</v>
       </c>
-      <c r="J5" s="10" t="str">
+      <c r="J5" s="52"/>
+      <c r="K5" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="35">
         <v>2016</v>
       </c>
@@ -1490,12 +1634,13 @@
       <c r="I6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="52"/>
+      <c r="K6" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="43">
         <v>2016</v>
       </c>
@@ -1521,12 +1666,15 @@
       <c r="I7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="10" t="str">
+      <c r="J7" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2017</v>
       </c>
@@ -1552,12 +1700,13 @@
       <c r="I8" s="24">
         <v>1</v>
       </c>
-      <c r="J8" s="10" t="str">
+      <c r="J8" s="54"/>
+      <c r="K8" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2017</v>
       </c>
@@ -1583,12 +1732,13 @@
       <c r="I9" s="24">
         <v>1</v>
       </c>
-      <c r="J9" s="10" t="str">
+      <c r="J9" s="54"/>
+      <c r="K9" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="27">
         <v>2018</v>
       </c>
@@ -1614,12 +1764,13 @@
       <c r="I10" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="10" t="str">
+      <c r="J10" s="54"/>
+      <c r="K10" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43">
         <v>2018</v>
       </c>
@@ -1645,12 +1796,15 @@
       <c r="I11" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="10" t="str">
+      <c r="J11" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2019</v>
       </c>
@@ -1676,12 +1830,13 @@
       <c r="I12" s="24">
         <v>0</v>
       </c>
-      <c r="J12" s="10" t="str">
+      <c r="J12" s="56"/>
+      <c r="K12" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2019</v>
       </c>
@@ -1707,12 +1862,13 @@
       <c r="I13" s="24">
         <v>0</v>
       </c>
-      <c r="J13" s="10" t="str">
+      <c r="J13" s="56"/>
+      <c r="K13" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="27">
         <v>2020</v>
       </c>
@@ -1738,12 +1894,13 @@
       <c r="I14" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="10" t="str">
-        <f t="shared" ref="J14:J15" si="1">IF(OR(AND(H14&gt;1,H14&lt;&gt;"-"),AND(I14&gt;1,I14&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J14" s="56"/>
+      <c r="K14" s="10" t="str">
+        <f t="shared" ref="K14:K15" si="1">IF(OR(AND(H14&gt;1,H14&lt;&gt;"-"),AND(I14&gt;1,I14&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43">
         <v>2020</v>
       </c>
@@ -1769,12 +1926,15 @@
       <c r="I15" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="10" t="str">
+      <c r="J15" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2021</v>
       </c>
@@ -1800,14 +1960,15 @@
       <c r="I16" s="24">
         <v>1</v>
       </c>
-      <c r="J16" s="10" t="str">
-        <f t="shared" ref="J16:J17" si="2">IF(OR(AND(H16&gt;1,H16&lt;&gt;"-"),AND(I16&gt;1,I16&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J16" s="58"/>
+      <c r="K16" s="10" t="str">
+        <f t="shared" ref="K16:K17" si="2">IF(OR(AND(H16&gt;1,H16&lt;&gt;"-"),AND(I16&gt;1,I16&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="T16" s="23"/>
       <c r="U16" s="23"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V16" s="23"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2021</v>
       </c>
@@ -1833,12 +1994,13 @@
       <c r="I17" s="24">
         <v>1</v>
       </c>
-      <c r="J17" s="10" t="str">
+      <c r="J17" s="58"/>
+      <c r="K17" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="27">
         <v>2022</v>
       </c>
@@ -1864,12 +2026,13 @@
       <c r="I18" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="10" t="str">
-        <f t="shared" ref="J18:J19" si="3">IF(OR(AND(H18&gt;1,H18&lt;&gt;"-"),AND(I18&gt;1,I18&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J18" s="58"/>
+      <c r="K18" s="10" t="str">
+        <f t="shared" ref="K18:K19" si="3">IF(OR(AND(H18&gt;1,H18&lt;&gt;"-"),AND(I18&gt;1,I18&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2022</v>
       </c>
@@ -1895,12 +2058,15 @@
       <c r="I19" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="10" t="str">
+      <c r="J19" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2023</v>
       </c>
@@ -1926,12 +2092,13 @@
       <c r="I20" s="24">
         <v>1</v>
       </c>
-      <c r="J20" s="10" t="str">
-        <f t="shared" ref="J20:J23" si="4">IF(OR(AND(H20&gt;1,H20&lt;&gt;"-"),AND(I20&gt;1,I20&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J20" s="60"/>
+      <c r="K20" s="10" t="str">
+        <f t="shared" ref="K20:K23" si="4">IF(OR(AND(H20&gt;1,H20&lt;&gt;"-"),AND(I20&gt;1,I20&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2023</v>
       </c>
@@ -1957,17 +2124,18 @@
       <c r="I21" s="24">
         <v>1</v>
       </c>
-      <c r="J21" s="10" t="str">
+      <c r="J21" s="60"/>
+      <c r="K21" s="10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
         <v>2024</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29" t="s">
@@ -1988,17 +2156,18 @@
       <c r="I22" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="10" t="str">
+      <c r="J22" s="60"/>
+      <c r="K22" s="10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>2024</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="45" t="s">
@@ -2019,15 +2188,32 @@
       <c r="I23" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="10" t="str">
+      <c r="J23" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="62"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" s="62"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="62"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="C1:E1"/>

--- a/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC33303C-063A-4055-ACBA-959137D149B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D5F1EA-028B-485C-83B5-782467A254AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -880,6 +880,9 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -905,9 +908,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1440,7 +1440,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1456,30 +1456,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="50"/>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="65" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="68"/>
+      <c r="I1" s="69"/>
       <c r="J1" s="51" t="s">
         <v>51</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="50" t="s">
         <v>45</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="I2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="63" t="s">
         <v>52</v>
       </c>
       <c r="K2" s="3"/>
@@ -1567,7 +1567,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="52"/>
       <c r="K4" s="10" t="str">
@@ -1860,7 +1860,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="56"/>
       <c r="K13" s="10" t="str">
@@ -1889,7 +1889,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>4</v>
@@ -1921,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="49" t="s">
         <v>4</v>

--- a/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D5F1EA-028B-485C-83B5-782467A254AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1B3468-26DE-4442-B1F6-DE2C288569EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1828,7 +1828,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="56"/>
       <c r="K12" s="10" t="str">
